--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-medicationcard.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-medicationcard.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$242</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9031" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8993" uniqueCount="819">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pmlc-composition-title:The PMLC composition title must be: 'Medikationsplan' in German or 'Plan de médication' in French or 'Piano farmacologico'' in Italian or 'Medication Card' in English or titles in other languages are also allowed. {(language.startsWith('en') implies title = 'Medication Card') and (language.startsWith('fr') implies title = 'Plan de médication') and (language.startsWith('de') implies title = 'Medikationsplan') and (language.startsWith('it') implies title = 'Piano farmacologico')}</t>
   </si>
   <si>
     <t>Event</t>
@@ -436,7 +436,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -865,7 +865,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1441,7 +1441,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.confidentialityCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.confidentialityCode</t>
   </si>
   <si>
     <t>Composition.confidentiality.extension:confidentialityCode.value[x]:valueCodeableConcept.id</t>
@@ -1924,7 +1924,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -2293,25 +2293,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](http://hl7.org/fhir/R4/extension-originaltext.html) which claims that the data is derived from the text provided or linked to.</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.entry.reference</t>
@@ -2913,7 +2894,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO243"/>
+  <dimension ref="A1:AO242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2922,15 +2903,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="99.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="103.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2941,27 +2922,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23192,11 +23173,9 @@
         <v>732</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>733</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
         <v>79</v>
       </c>
@@ -23214,19 +23193,19 @@
         <v>79</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>734</v>
+        <v>106</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>735</v>
+        <v>350</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>736</v>
+        <v>351</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>737</v>
+        <v>352</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -23276,25 +23255,25 @@
         <v>79</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>79</v>
@@ -23308,10 +23287,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23334,16 +23313,16 @@
         <v>93</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -23369,13 +23348,13 @@
         <v>79</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z175" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA175" t="s" s="2">
         <v>79</v>
@@ -23393,7 +23372,7 @@
         <v>79</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -23402,7 +23381,7 @@
         <v>92</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>104</v>
@@ -23425,10 +23404,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23451,16 +23430,16 @@
         <v>93</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -23486,13 +23465,13 @@
         <v>79</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>79</v>
@@ -23510,7 +23489,7 @@
         <v>79</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -23528,7 +23507,7 @@
         <v>79</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>79</v>
@@ -23542,10 +23521,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23568,16 +23547,16 @@
         <v>93</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O177" s="2"/>
       <c r="P177" t="s" s="2">
@@ -23627,7 +23606,7 @@
         <v>79</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -23645,7 +23624,7 @@
         <v>79</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>79</v>
@@ -23659,10 +23638,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -23682,21 +23661,23 @@
         <v>79</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O178" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="P178" t="s" s="2">
         <v>79</v>
       </c>
@@ -23720,13 +23701,13 @@
         <v>79</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>79</v>
+        <v>680</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>79</v>
@@ -23744,7 +23725,7 @@
         <v>79</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>372</v>
+        <v>674</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -23753,7 +23734,7 @@
         <v>92</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>104</v>
@@ -23762,10 +23743,10 @@
         <v>79</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>179</v>
+        <v>681</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>79</v>
@@ -23776,10 +23757,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23790,7 +23771,7 @@
         <v>80</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>79</v>
@@ -23802,7 +23783,7 @@
         <v>79</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L179" t="s" s="2">
         <v>113</v>
@@ -23811,11 +23792,9 @@
         <v>114</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O179" s="2"/>
       <c r="P179" t="s" s="2">
         <v>79</v>
       </c>
@@ -23839,13 +23818,13 @@
         <v>79</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z179" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>79</v>
@@ -23863,16 +23842,16 @@
         <v>79</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>104</v>
@@ -23881,10 +23860,10 @@
         <v>79</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>79</v>
@@ -23895,24 +23874,26 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C180" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="D180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>79</v>
@@ -23921,17 +23902,15 @@
         <v>79</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>113</v>
+        <v>740</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>79</v>
@@ -23980,7 +23959,7 @@
         <v>79</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -23989,10 +23968,10 @@
         <v>81</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>104</v>
+        <v>614</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>79</v>
@@ -24001,7 +23980,7 @@
         <v>615</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>79</v>
@@ -24012,26 +23991,24 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C181" t="s" s="2">
-        <v>745</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I181" t="s" s="2">
         <v>79</v>
@@ -24040,13 +24017,13 @@
         <v>79</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>484</v>
+        <v>106</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>746</v>
+        <v>107</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>612</v>
+        <v>108</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
@@ -24097,28 +24074,28 @@
         <v>79</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>609</v>
+        <v>109</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>615</v>
+        <v>110</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>79</v>
@@ -24129,21 +24106,21 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>79</v>
@@ -24155,15 +24132,17 @@
         <v>79</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N182" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
         <v>79</v>
@@ -24212,19 +24191,19 @@
         <v>79</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>79</v>
@@ -24244,43 +24223,41 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>79</v>
@@ -24329,7 +24306,7 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>118</v>
+        <v>498</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -24347,7 +24324,7 @@
         <v>79</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>79</v>
@@ -24361,42 +24338,46 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>181</v>
+        <v>745</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N184" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O184" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="P184" t="s" s="2">
         <v>79</v>
       </c>
@@ -24444,28 +24425,28 @@
         <v>79</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>498</v>
+        <v>620</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>79</v>
@@ -24476,14 +24457,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -24502,19 +24483,19 @@
         <v>79</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>751</v>
+        <v>627</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>79</v>
@@ -24524,7 +24505,7 @@
         <v>79</v>
       </c>
       <c r="S185" t="s" s="2">
-        <v>79</v>
+        <v>747</v>
       </c>
       <c r="T185" t="s" s="2">
         <v>79</v>
@@ -24539,13 +24520,13 @@
         <v>79</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>79</v>
+        <v>632</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>79</v>
@@ -24563,7 +24544,7 @@
         <v>79</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -24581,10 +24562,10 @@
         <v>79</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>79</v>
@@ -24595,10 +24576,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24606,10 +24587,10 @@
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G186" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H186" t="s" s="2">
         <v>79</v>
@@ -24621,19 +24602,17 @@
         <v>79</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>220</v>
+        <v>634</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>630</v>
+        <v>397</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>79</v>
@@ -24643,7 +24622,7 @@
         <v>79</v>
       </c>
       <c r="S186" t="s" s="2">
-        <v>753</v>
+        <v>79</v>
       </c>
       <c r="T186" t="s" s="2">
         <v>79</v>
@@ -24658,13 +24637,13 @@
         <v>79</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>632</v>
+        <v>79</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>79</v>
@@ -24682,13 +24661,13 @@
         <v>79</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI186" t="s" s="2">
         <v>79</v>
@@ -24700,24 +24679,24 @@
         <v>79</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>273</v>
+        <v>399</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO186" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24728,7 +24707,7 @@
         <v>80</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>79</v>
@@ -24740,18 +24719,18 @@
         <v>79</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N187" s="2"/>
-      <c r="O187" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="N187" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
         <v>79</v>
       </c>
@@ -24799,13 +24778,13 @@
         <v>79</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>79</v>
@@ -24817,24 +24796,24 @@
         <v>79</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24857,16 +24836,16 @@
         <v>79</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>605</v>
+        <v>166</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>757</v>
+        <v>642</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
@@ -24916,7 +24895,7 @@
         <v>79</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -24925,7 +24904,7 @@
         <v>92</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>104</v>
@@ -24934,10 +24913,10 @@
         <v>79</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>79</v>
@@ -24948,10 +24927,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24974,18 +24953,20 @@
         <v>79</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>759</v>
+        <v>647</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O189" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="P189" t="s" s="2">
         <v>79</v>
       </c>
@@ -25009,13 +24990,13 @@
         <v>79</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>79</v>
@@ -25033,7 +25014,7 @@
         <v>79</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25042,7 +25023,7 @@
         <v>92</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>104</v>
@@ -25051,24 +25032,24 @@
         <v>79</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>645</v>
+        <v>110</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO189" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25091,19 +25072,19 @@
         <v>79</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>79</v>
@@ -25128,13 +25109,13 @@
         <v>79</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="AA190" t="s" s="2">
         <v>79</v>
@@ -25152,7 +25133,7 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25170,7 +25151,7 @@
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>110</v>
@@ -25179,15 +25160,15 @@
         <v>79</v>
       </c>
       <c r="AO190" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25198,10 +25179,10 @@
         <v>80</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I191" t="s" s="2">
         <v>79</v>
@@ -25210,20 +25191,18 @@
         <v>79</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>220</v>
+        <v>757</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>726</v>
+        <v>663</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>79</v>
       </c>
@@ -25247,13 +25226,13 @@
         <v>79</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>79</v>
@@ -25271,16 +25250,16 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>104</v>
@@ -25289,10 +25268,10 @@
         <v>79</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>110</v>
+        <v>667</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>79</v>
@@ -25303,10 +25282,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25317,10 +25296,10 @@
         <v>80</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H192" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I192" t="s" s="2">
         <v>79</v>
@@ -25329,17 +25308,15 @@
         <v>79</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>763</v>
+        <v>106</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>764</v>
+        <v>107</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>79</v>
@@ -25388,28 +25365,28 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>661</v>
+        <v>109</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK192" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>667</v>
+        <v>79</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>79</v>
@@ -25420,21 +25397,21 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>79</v>
@@ -25446,15 +25423,17 @@
         <v>79</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N193" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>79</v>
@@ -25491,31 +25470,31 @@
         <v>79</v>
       </c>
       <c r="AB193" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC193" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>79</v>
@@ -25535,21 +25514,21 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G194" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H194" t="s" s="2">
         <v>79</v>
@@ -25558,19 +25537,19 @@
         <v>79</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -25608,37 +25587,37 @@
         <v>79</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC194" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD194" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH194" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>79</v>
@@ -25652,10 +25631,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25663,7 +25642,7 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G195" t="s" s="2">
         <v>92</v>
@@ -25678,16 +25657,16 @@
         <v>93</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -25713,13 +25692,13 @@
         <v>79</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>79</v>
@@ -25737,7 +25716,7 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -25746,7 +25725,7 @@
         <v>92</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>104</v>
@@ -25769,10 +25748,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25795,16 +25774,16 @@
         <v>93</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
@@ -25830,13 +25809,13 @@
         <v>79</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>79</v>
@@ -25854,7 +25833,7 @@
         <v>79</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -25872,7 +25851,7 @@
         <v>79</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>79</v>
@@ -25886,10 +25865,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25912,16 +25891,16 @@
         <v>93</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -25971,7 +25950,7 @@
         <v>79</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -25989,7 +25968,7 @@
         <v>79</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>79</v>
@@ -26003,10 +25982,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26026,21 +26005,23 @@
         <v>79</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>369</v>
+        <v>675</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>370</v>
+        <v>676</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O198" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
       </c>
@@ -26064,13 +26045,13 @@
         <v>79</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>79</v>
+        <v>680</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -26088,7 +26069,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>372</v>
+        <v>674</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26097,7 +26078,7 @@
         <v>92</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>104</v>
@@ -26106,10 +26087,10 @@
         <v>79</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>179</v>
+        <v>681</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>79</v>
@@ -26120,10 +26101,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26134,7 +26115,7 @@
         <v>80</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>79</v>
@@ -26146,20 +26127,18 @@
         <v>79</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
         <v>79</v>
       </c>
@@ -26183,13 +26162,13 @@
         <v>79</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>79</v>
@@ -26207,16 +26186,16 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>104</v>
@@ -26225,10 +26204,10 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>79</v>
@@ -26239,12 +26218,14 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C200" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>768</v>
+      </c>
       <c r="D200" t="s" s="2">
         <v>79</v>
       </c>
@@ -26253,10 +26234,10 @@
         <v>80</v>
       </c>
       <c r="G200" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H200" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I200" t="s" s="2">
         <v>79</v>
@@ -26265,17 +26246,15 @@
         <v>79</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>79</v>
@@ -26324,7 +26303,7 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
@@ -26333,10 +26312,10 @@
         <v>81</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>104</v>
+        <v>614</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>79</v>
@@ -26345,7 +26324,7 @@
         <v>615</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26356,14 +26335,12 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C201" t="s" s="2">
-        <v>774</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
         <v>79</v>
       </c>
@@ -26375,7 +26352,7 @@
         <v>92</v>
       </c>
       <c r="H201" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I201" t="s" s="2">
         <v>79</v>
@@ -26384,13 +26361,13 @@
         <v>79</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>484</v>
+        <v>106</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>775</v>
+        <v>113</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>612</v>
+        <v>114</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -26441,28 +26418,28 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>609</v>
+        <v>109</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>615</v>
+        <v>110</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26473,21 +26450,21 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H202" t="s" s="2">
         <v>79</v>
@@ -26499,15 +26476,17 @@
         <v>79</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N202" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
         <v>79</v>
@@ -26556,19 +26535,19 @@
         <v>79</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>79</v>
@@ -26588,43 +26567,41 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I203" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K203" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
         <v>79</v>
@@ -26673,7 +26650,7 @@
         <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>118</v>
+        <v>498</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -26691,7 +26668,7 @@
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>79</v>
@@ -26705,42 +26682,46 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G204" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H204" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I204" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>181</v>
+        <v>774</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O204" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="P204" t="s" s="2">
         <v>79</v>
       </c>
@@ -26788,28 +26769,28 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>498</v>
+        <v>620</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK204" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>79</v>
@@ -26820,14 +26801,14 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
@@ -26846,19 +26827,19 @@
         <v>79</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>780</v>
+        <v>627</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>79</v>
@@ -26868,7 +26849,7 @@
         <v>79</v>
       </c>
       <c r="S205" t="s" s="2">
-        <v>79</v>
+        <v>776</v>
       </c>
       <c r="T205" t="s" s="2">
         <v>79</v>
@@ -26883,13 +26864,13 @@
         <v>79</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="Z205" t="s" s="2">
-        <v>79</v>
+        <v>632</v>
       </c>
       <c r="AA205" t="s" s="2">
         <v>79</v>
@@ -26907,7 +26888,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -26925,10 +26906,10 @@
         <v>79</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>79</v>
@@ -26939,10 +26920,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -26950,7 +26931,7 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>92</v>
@@ -26965,20 +26946,16 @@
         <v>79</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>627</v>
+        <v>107</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>79</v>
       </c>
@@ -26987,7 +26964,7 @@
         <v>79</v>
       </c>
       <c r="S206" t="s" s="2">
-        <v>782</v>
+        <v>79</v>
       </c>
       <c r="T206" t="s" s="2">
         <v>79</v>
@@ -27002,13 +26979,13 @@
         <v>79</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="Z206" t="s" s="2">
-        <v>632</v>
+        <v>79</v>
       </c>
       <c r="AA206" t="s" s="2">
         <v>79</v>
@@ -27026,7 +27003,7 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>626</v>
+        <v>109</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27038,16 +27015,16 @@
         <v>79</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>79</v>
@@ -27058,10 +27035,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27072,7 +27049,7 @@
         <v>80</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>79</v>
@@ -27084,13 +27061,13 @@
         <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -27129,37 +27106,37 @@
         <v>79</v>
       </c>
       <c r="AB207" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>79</v>
@@ -27173,10 +27150,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27196,19 +27173,23 @@
         <v>79</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P208" t="s" s="2">
         <v>79</v>
       </c>
@@ -27244,19 +27225,19 @@
         <v>79</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
@@ -27268,13 +27249,13 @@
         <v>79</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK208" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>79</v>
@@ -27288,10 +27269,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27302,7 +27283,7 @@
         <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>79</v>
@@ -27311,23 +27292,19 @@
         <v>79</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
         <v>79</v>
       </c>
@@ -27375,25 +27352,25 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>79</v>
@@ -27407,10 +27384,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27421,7 +27398,7 @@
         <v>80</v>
       </c>
       <c r="G210" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H210" t="s" s="2">
         <v>79</v>
@@ -27433,13 +27410,13 @@
         <v>79</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -27478,37 +27455,37 @@
         <v>79</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC210" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>79</v>
@@ -27522,10 +27499,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27536,7 +27513,7 @@
         <v>80</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>79</v>
@@ -27545,19 +27522,23 @@
         <v>79</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P211" t="s" s="2">
         <v>79</v>
       </c>
@@ -27593,37 +27574,37 @@
         <v>79</v>
       </c>
       <c r="AB211" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC211" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>79</v>
@@ -27637,10 +27618,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27663,20 +27644,18 @@
         <v>93</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
       </c>
@@ -27724,7 +27703,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -27742,7 +27721,7 @@
         <v>79</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>79</v>
@@ -27756,10 +27735,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -27782,18 +27761,18 @@
         <v>93</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O213" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
       </c>
@@ -27841,7 +27820,7 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
@@ -27859,7 +27838,7 @@
         <v>79</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="AM213" t="s" s="2">
         <v>79</v>
@@ -27873,10 +27852,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -27899,17 +27878,17 @@
         <v>93</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>79</v>
@@ -27958,7 +27937,7 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -27976,7 +27955,7 @@
         <v>79</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>79</v>
@@ -27990,10 +27969,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28016,17 +27995,19 @@
         <v>93</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O215" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>79</v>
@@ -28075,7 +28056,7 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28093,7 +28074,7 @@
         <v>79</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>79</v>
@@ -28107,10 +28088,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28133,19 +28114,19 @@
         <v>93</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="O216" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>79</v>
@@ -28194,7 +28175,7 @@
         <v>79</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
@@ -28212,7 +28193,7 @@
         <v>79</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>79</v>
@@ -28226,10 +28207,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>718</v>
+        <v>633</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28240,7 +28221,7 @@
         <v>80</v>
       </c>
       <c r="G217" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H217" t="s" s="2">
         <v>79</v>
@@ -28249,22 +28230,20 @@
         <v>79</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>106</v>
+        <v>634</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>317</v>
+        <v>635</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
@@ -28313,13 +28292,13 @@
         <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>321</v>
+        <v>633</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>79</v>
@@ -28331,24 +28310,24 @@
         <v>79</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO217" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28359,7 +28338,7 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>79</v>
@@ -28371,18 +28350,18 @@
         <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>635</v>
+        <v>113</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N218" s="2"/>
-      <c r="O218" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>79</v>
       </c>
@@ -28430,13 +28409,13 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>79</v>
@@ -28448,24 +28427,24 @@
         <v>79</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="AN218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28473,13 +28452,13 @@
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G219" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>79</v>
@@ -28488,16 +28467,16 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>605</v>
+        <v>166</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>113</v>
+        <v>791</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>114</v>
+        <v>642</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -28547,7 +28526,7 @@
         <v>79</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -28556,7 +28535,7 @@
         <v>92</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>104</v>
@@ -28565,10 +28544,10 @@
         <v>79</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>79</v>
@@ -28579,10 +28558,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28590,13 +28569,13 @@
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>79</v>
@@ -28605,18 +28584,20 @@
         <v>79</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>797</v>
+        <v>647</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
       </c>
@@ -28640,13 +28621,13 @@
         <v>79</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>79</v>
@@ -28664,7 +28645,7 @@
         <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -28673,7 +28654,7 @@
         <v>92</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>104</v>
@@ -28682,24 +28663,24 @@
         <v>79</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>645</v>
+        <v>110</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28722,19 +28703,19 @@
         <v>79</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>79</v>
@@ -28759,13 +28740,13 @@
         <v>79</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Z221" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="AA221" t="s" s="2">
         <v>79</v>
@@ -28783,7 +28764,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -28801,7 +28782,7 @@
         <v>79</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>110</v>
@@ -28810,15 +28791,15 @@
         <v>79</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28829,7 +28810,7 @@
         <v>80</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>79</v>
@@ -28841,20 +28822,18 @@
         <v>79</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>220</v>
+        <v>605</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>725</v>
+        <v>662</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>726</v>
+        <v>663</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O222" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
         <v>79</v>
       </c>
@@ -28878,13 +28857,13 @@
         <v>79</v>
       </c>
       <c r="X222" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y222" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="Z222" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="AA222" t="s" s="2">
         <v>79</v>
@@ -28902,16 +28881,16 @@
         <v>79</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ222" t="s" s="2">
         <v>104</v>
@@ -28920,10 +28899,10 @@
         <v>79</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>110</v>
+        <v>667</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>79</v>
@@ -28934,10 +28913,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28948,7 +28927,7 @@
         <v>80</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>79</v>
@@ -28960,18 +28939,20 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>605</v>
+        <v>220</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>662</v>
+        <v>113</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>663</v>
+        <v>114</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O223" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="O223" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="P223" t="s" s="2">
         <v>79</v>
       </c>
@@ -28995,13 +28976,13 @@
         <v>79</v>
       </c>
       <c r="X223" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y223" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="Z223" t="s" s="2">
-        <v>79</v>
+        <v>680</v>
       </c>
       <c r="AA223" t="s" s="2">
         <v>79</v>
@@ -29019,13 +29000,13 @@
         <v>79</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>665</v>
@@ -29037,10 +29018,10 @@
         <v>79</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>667</v>
+        <v>110</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>79</v>
@@ -29051,10 +29032,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29065,7 +29046,7 @@
         <v>80</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>79</v>
@@ -29077,7 +29058,7 @@
         <v>79</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L224" t="s" s="2">
         <v>113</v>
@@ -29086,11 +29067,9 @@
         <v>114</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
         <v>79</v>
       </c>
@@ -29114,13 +29093,13 @@
         <v>79</v>
       </c>
       <c r="X224" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>79</v>
@@ -29138,16 +29117,16 @@
         <v>79</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>104</v>
@@ -29156,10 +29135,10 @@
         <v>79</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>79</v>
@@ -29170,12 +29149,14 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C225" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>798</v>
+      </c>
       <c r="D225" t="s" s="2">
         <v>79</v>
       </c>
@@ -29184,7 +29165,7 @@
         <v>80</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>79</v>
@@ -29196,17 +29177,15 @@
         <v>79</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>113</v>
+        <v>799</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="N225" s="2"/>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
         <v>79</v>
@@ -29255,7 +29234,7 @@
         <v>79</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>682</v>
+        <v>609</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -29264,10 +29243,10 @@
         <v>81</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>104</v>
+        <v>614</v>
       </c>
       <c r="AK225" t="s" s="2">
         <v>79</v>
@@ -29276,7 +29255,7 @@
         <v>615</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>79</v>
@@ -29287,14 +29266,12 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C226" t="s" s="2">
-        <v>804</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
         <v>79</v>
       </c>
@@ -29315,13 +29292,13 @@
         <v>79</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>484</v>
+        <v>106</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>805</v>
+        <v>107</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>612</v>
+        <v>108</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -29372,28 +29349,28 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>609</v>
+        <v>109</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AK226" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>615</v>
+        <v>110</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>79</v>
@@ -29404,21 +29381,21 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>79</v>
@@ -29430,15 +29407,17 @@
         <v>79</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N227" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
         <v>79</v>
@@ -29487,19 +29466,19 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK227" t="s" s="2">
         <v>79</v>
@@ -29519,43 +29498,41 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I228" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K228" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N228" s="2"/>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
         <v>79</v>
@@ -29604,7 +29581,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>118</v>
+        <v>498</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>80</v>
@@ -29622,7 +29599,7 @@
         <v>79</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>79</v>
@@ -29636,42 +29613,46 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I229" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>181</v>
+        <v>622</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="P229" t="s" s="2">
         <v>79</v>
       </c>
@@ -29719,28 +29700,28 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>498</v>
+        <v>620</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>79</v>
@@ -29751,18 +29732,18 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>92</v>
@@ -29777,19 +29758,19 @@
         <v>79</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>79</v>
@@ -29799,7 +29780,7 @@
         <v>79</v>
       </c>
       <c r="S230" t="s" s="2">
-        <v>79</v>
+        <v>805</v>
       </c>
       <c r="T230" t="s" s="2">
         <v>79</v>
@@ -29814,13 +29795,13 @@
         <v>79</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>79</v>
+        <v>632</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>79</v>
@@ -29838,7 +29819,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
@@ -29856,10 +29837,10 @@
         <v>79</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>418</v>
+        <v>273</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>419</v>
+        <v>274</v>
       </c>
       <c r="AN230" t="s" s="2">
         <v>79</v>
@@ -29870,10 +29851,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29881,7 +29862,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>92</v>
@@ -29896,20 +29877,16 @@
         <v>79</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>627</v>
+        <v>107</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>79</v>
       </c>
@@ -29918,7 +29895,7 @@
         <v>79</v>
       </c>
       <c r="S231" t="s" s="2">
-        <v>811</v>
+        <v>79</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>79</v>
@@ -29933,13 +29910,13 @@
         <v>79</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>632</v>
+        <v>79</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>79</v>
@@ -29957,7 +29934,7 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>626</v>
+        <v>109</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>80</v>
@@ -29969,16 +29946,16 @@
         <v>79</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>79</v>
@@ -29989,21 +29966,21 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G232" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>79</v>
@@ -30015,15 +29992,17 @@
         <v>79</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N232" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>79</v>
@@ -30060,31 +30039,31 @@
         <v>79</v>
       </c>
       <c r="AB232" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC232" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD232" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK232" t="s" s="2">
         <v>79</v>
@@ -30104,18 +30083,18 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G233" t="s" s="2">
         <v>81</v>
@@ -30127,21 +30106,23 @@
         <v>79</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P233" t="s" s="2">
         <v>79</v>
       </c>
@@ -30177,19 +30158,19 @@
         <v>79</v>
       </c>
       <c r="AB233" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC233" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD233" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>80</v>
@@ -30201,13 +30182,13 @@
         <v>79</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK233" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>79</v>
@@ -30221,10 +30202,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30232,10 +30213,10 @@
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G234" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H234" t="s" s="2">
         <v>79</v>
@@ -30247,19 +30228,19 @@
         <v>93</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O234" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -30308,13 +30289,13 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI234" t="s" s="2">
         <v>79</v>
@@ -30326,7 +30307,7 @@
         <v>79</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>79</v>
@@ -30340,10 +30321,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>718</v>
+        <v>633</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30354,7 +30335,7 @@
         <v>80</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>79</v>
@@ -30363,22 +30344,20 @@
         <v>79</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>106</v>
+        <v>634</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>317</v>
+        <v>635</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N235" s="2"/>
       <c r="O235" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>79</v>
@@ -30427,13 +30406,13 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>321</v>
+        <v>633</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI235" t="s" s="2">
         <v>79</v>
@@ -30445,24 +30424,24 @@
         <v>79</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AN235" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO235" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30473,7 +30452,7 @@
         <v>80</v>
       </c>
       <c r="G236" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>79</v>
@@ -30485,18 +30464,18 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N236" s="2"/>
-      <c r="O236" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
         <v>79</v>
       </c>
@@ -30544,13 +30523,13 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>79</v>
@@ -30562,24 +30541,24 @@
         <v>79</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AM236" t="s" s="2">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="AN236" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO236" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -30602,16 +30581,16 @@
         <v>79</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>605</v>
+        <v>166</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>756</v>
+        <v>641</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>757</v>
+        <v>642</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
@@ -30661,7 +30640,7 @@
         <v>79</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>80</v>
@@ -30670,7 +30649,7 @@
         <v>92</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>104</v>
@@ -30679,10 +30658,10 @@
         <v>79</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="AM237" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AN237" t="s" s="2">
         <v>79</v>
@@ -30693,10 +30672,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30719,18 +30698,20 @@
         <v>79</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O238" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="P238" t="s" s="2">
         <v>79</v>
       </c>
@@ -30754,13 +30735,13 @@
         <v>79</v>
       </c>
       <c r="X238" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>79</v>
@@ -30778,7 +30759,7 @@
         <v>79</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>80</v>
@@ -30787,7 +30768,7 @@
         <v>92</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>104</v>
@@ -30796,24 +30777,24 @@
         <v>79</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="AM238" t="s" s="2">
-        <v>645</v>
+        <v>110</v>
       </c>
       <c r="AN238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO238" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -30836,19 +30817,19 @@
         <v>79</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P239" t="s" s="2">
         <v>79</v>
@@ -30873,13 +30854,13 @@
         <v>79</v>
       </c>
       <c r="X239" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>79</v>
@@ -30897,7 +30878,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>80</v>
@@ -30915,7 +30896,7 @@
         <v>79</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>110</v>
@@ -30924,15 +30905,15 @@
         <v>79</v>
       </c>
       <c r="AO239" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -30940,7 +30921,7 @@
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>92</v>
@@ -30955,20 +30936,18 @@
         <v>79</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>220</v>
+        <v>816</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>725</v>
+        <v>662</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>726</v>
+        <v>663</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>79</v>
       </c>
@@ -30992,13 +30971,13 @@
         <v>79</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>79</v>
@@ -31016,16 +30995,16 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH240" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>104</v>
@@ -31034,10 +31013,10 @@
         <v>79</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>110</v>
+        <v>667</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>79</v>
@@ -31048,10 +31027,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31059,7 +31038,7 @@
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>92</v>
@@ -31074,18 +31053,20 @@
         <v>79</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>822</v>
+        <v>220</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O241" s="2"/>
+        <v>677</v>
+      </c>
+      <c r="O241" t="s" s="2">
+        <v>678</v>
+      </c>
       <c r="P241" t="s" s="2">
         <v>79</v>
       </c>
@@ -31109,13 +31090,13 @@
         <v>79</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>79</v>
+        <v>680</v>
       </c>
       <c r="AA241" t="s" s="2">
         <v>79</v>
@@ -31133,13 +31114,13 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>665</v>
@@ -31151,10 +31132,10 @@
         <v>79</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="AM241" t="s" s="2">
-        <v>667</v>
+        <v>110</v>
       </c>
       <c r="AN241" t="s" s="2">
         <v>79</v>
@@ -31165,10 +31146,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31179,7 +31160,7 @@
         <v>80</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>79</v>
@@ -31191,20 +31172,18 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O242" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O242" s="2"/>
       <c r="P242" t="s" s="2">
         <v>79</v>
       </c>
@@ -31228,13 +31207,13 @@
         <v>79</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA242" t="s" s="2">
         <v>79</v>
@@ -31252,16 +31231,16 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>104</v>
@@ -31270,137 +31249,20 @@
         <v>79</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>681</v>
+        <v>615</v>
       </c>
       <c r="AM242" t="s" s="2">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="AN242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO242" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="243" hidden="true">
-      <c r="A243" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="B243" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G243" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O243" s="2"/>
-      <c r="P243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q243" s="2"/>
-      <c r="R243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF243" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="AG243" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH243" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI243" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AJ243" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL243" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM243" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AN243" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO243" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO243">
+  <autoFilter ref="A1:AO242">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -31410,7 +31272,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI242">
+  <conditionalFormatting sqref="A2:AI241">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
